--- a/Person_B_and_trucks/on_trucks/Processed_Stand_Alone/59_11R22.xlsx
+++ b/Person_B_and_trucks/on_trucks/Processed_Stand_Alone/59_11R22.xlsx
@@ -680,79 +680,79 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>0.09197485937058973</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.0121840640905508</v>
+        <v>0.1389966346849133</v>
       </c>
       <c r="G2">
-        <v>0.08922939557640905</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>0.2832256969257736</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0.05694755999134838</v>
+        <v>0</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.04163972620312362</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.003993230301732169</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.07997298557010124</v>
       </c>
       <c r="N2">
-        <v>0.06100340822144994</v>
+        <v>0.05485460674118044</v>
       </c>
       <c r="O2">
-        <v>0.009704892186060191</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1292570666351432</v>
+        <v>0.03422391656332299</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
       <c r="R2">
-        <v>0.05427572452530702</v>
+        <v>0.2070922802619819</v>
       </c>
       <c r="S2">
         <v>0</v>
       </c>
       <c r="T2">
-        <v>0.166164902802697</v>
+        <v>0.0628986729267115</v>
       </c>
       <c r="U2">
-        <v>0.002108333739221937</v>
+        <v>0</v>
       </c>
       <c r="V2">
-        <v>0.02065941416122502</v>
+        <v>0.07213701326773868</v>
       </c>
       <c r="W2">
-        <v>0</v>
+        <v>0.01957095010926094</v>
       </c>
       <c r="X2">
-        <v>0.001108433611980476</v>
+        <v>0.003382685879079592</v>
       </c>
       <c r="Y2">
-        <v>0.008184638797427743</v>
+        <v>0.1644072689822333</v>
       </c>
       <c r="Z2">
-        <v>0</v>
+        <v>0.006494723304225705</v>
       </c>
       <c r="AA2">
-        <v>0.1012833523021285</v>
+        <v>0.01627951671792255</v>
       </c>
       <c r="AB2">
-        <v>0</v>
+        <v>0.002080929115882338</v>
       </c>
       <c r="AC2">
         <v>0</v>
@@ -773,7 +773,7 @@
         <v>0</v>
       </c>
       <c r="AI2">
-        <v>0.00466311643327734</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
         <v>0</v>
@@ -793,13 +793,13 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.1055350176767106</v>
+        <v>0.1283957996129114</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.3103978462646136</v>
+        <v>0.1127063901309665</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -811,61 +811,61 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.00275752704865023</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0.01357331775101693</v>
+        <v>0.063916533795146</v>
       </c>
       <c r="L3">
-        <v>0.0399150992472909</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0.07501213579482692</v>
+        <v>0.1060772641086132</v>
       </c>
       <c r="N3">
-        <v>0.06338371578751906</v>
+        <v>0.04393710674913413</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.07295185634979738</v>
+        <v>0.03142800229733422</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
       <c r="R3">
-        <v>0.1663957528291079</v>
+        <v>0.1948601268802926</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="T3">
-        <v>0.01323194279838652</v>
+        <v>0.05424741058850489</v>
       </c>
       <c r="U3">
         <v>0</v>
       </c>
       <c r="V3">
-        <v>0.0004537126269567694</v>
+        <v>0.06016920182114693</v>
       </c>
       <c r="W3">
-        <v>0.02166589749702399</v>
+        <v>0.02199003994770691</v>
       </c>
       <c r="X3">
         <v>0</v>
       </c>
       <c r="Y3">
-        <v>0.1147261783280992</v>
+        <v>0.1655065347189693</v>
       </c>
       <c r="Z3">
-        <v>0</v>
+        <v>0.005843531205866459</v>
       </c>
       <c r="AA3">
-        <v>0</v>
+        <v>0.008472251834721362</v>
       </c>
       <c r="AB3">
-        <v>0</v>
+        <v>0.001860331900664007</v>
       </c>
       <c r="AC3">
         <v>0</v>
@@ -874,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="AE3">
-        <v>0</v>
+        <v>0.0005894744080221802</v>
       </c>
       <c r="AF3">
         <v>0</v>
@@ -906,19 +906,19 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>0.07516673184542731</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.2001272947229348</v>
+        <v>0.1838846518761378</v>
       </c>
       <c r="G4">
-        <v>0.1145502844178472</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>0.1561787415873084</v>
+        <v>0</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -927,55 +927,55 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.01118007940779629</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.006218282065201848</v>
       </c>
       <c r="M4">
-        <v>0.05224032352961187</v>
+        <v>0.04062246385773892</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.1059761369432946</v>
       </c>
       <c r="O4">
-        <v>0.1598342015039639</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>0.02328317571161517</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
       <c r="R4">
-        <v>0.0442379495556518</v>
+        <v>0.2100892660280738</v>
       </c>
       <c r="S4">
-        <v>0.08492486620232657</v>
+        <v>0</v>
       </c>
       <c r="T4">
-        <v>0.06038485351835393</v>
+        <v>0.07105811966814016</v>
       </c>
       <c r="U4">
-        <v>0.01457506691445173</v>
+        <v>0</v>
       </c>
       <c r="V4">
-        <v>0</v>
+        <v>0.07692797194653057</v>
       </c>
       <c r="W4">
-        <v>0.009408114883704057</v>
+        <v>0.01040078487796588</v>
       </c>
       <c r="X4">
-        <v>0</v>
+        <v>0.008473149954994715</v>
       </c>
       <c r="Y4">
-        <v>0.003039437697610227</v>
+        <v>0.1412807865691682</v>
       </c>
       <c r="Z4">
-        <v>0.06154909923823473</v>
+        <v>0.019988420945697</v>
       </c>
       <c r="AA4">
-        <v>0.03806972138962724</v>
+        <v>0.01544997830221785</v>
       </c>
       <c r="AB4">
         <v>0</v>
@@ -996,7 +996,7 @@
         <v>0</v>
       </c>
       <c r="AH4">
-        <v>0.0008800448383736487</v>
+        <v>0</v>
       </c>
       <c r="AI4">
         <v>0</v>
@@ -1019,76 +1019,76 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>0.0777590573538135</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.2210727623811943</v>
+        <v>0.1492652390092796</v>
       </c>
       <c r="G5">
-        <v>0.1022687849909022</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>0.1792287689774957</v>
+        <v>0</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.003998915462083324</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.02594656214800107</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.01337217064417107</v>
       </c>
       <c r="M5">
-        <v>0.03581499511214403</v>
+        <v>0.07709457057341094</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.06446930993809191</v>
       </c>
       <c r="O5">
-        <v>0.1572809883640796</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>0.01738378959973232</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
       <c r="R5">
-        <v>0.04371799225233787</v>
+        <v>0.2063440750386834</v>
       </c>
       <c r="S5">
-        <v>0.07988420072901989</v>
+        <v>0</v>
       </c>
       <c r="T5">
-        <v>0.06859404301266761</v>
+        <v>0.08586000491836863</v>
       </c>
       <c r="U5">
-        <v>0.009669896348997901</v>
+        <v>0.01119466920271337</v>
       </c>
       <c r="V5">
-        <v>0</v>
+        <v>0.07453716070600404</v>
       </c>
       <c r="W5">
-        <v>0.007404544147090041</v>
+        <v>0.03248600600903053</v>
       </c>
       <c r="X5">
         <v>0</v>
       </c>
       <c r="Y5">
-        <v>0</v>
+        <v>0.1435382657766989</v>
       </c>
       <c r="Z5">
-        <v>0.06017408772060775</v>
+        <v>0</v>
       </c>
       <c r="AA5">
-        <v>0.02683513440648752</v>
+        <v>0.0207491190820006</v>
       </c>
       <c r="AB5">
         <v>0</v>
@@ -1109,7 +1109,7 @@
         <v>0</v>
       </c>
       <c r="AH5">
-        <v>0.004054886094891918</v>
+        <v>0</v>
       </c>
       <c r="AI5">
         <v>0</v>
@@ -1138,19 +1138,19 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.08321948940234518</v>
+        <v>0.1358400428342964</v>
       </c>
       <c r="G6">
-        <v>0.01371716348530353</v>
+        <v>0.03102052220806364</v>
       </c>
       <c r="H6">
-        <v>0.3742390443889134</v>
+        <v>0.09728875042636956</v>
       </c>
       <c r="I6">
-        <v>0.003444437425260722</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0.03417921869716412</v>
+        <v>0</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -1159,61 +1159,61 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.01348852287713748</v>
+        <v>0.05116421370951357</v>
       </c>
       <c r="N6">
-        <v>0.01755558648863176</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0.08852257815998092</v>
+        <v>0.1260861343220875</v>
       </c>
       <c r="P6">
-        <v>0.0482915235685217</v>
+        <v>0.02508515799181775</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
       <c r="R6">
-        <v>0.07232279725165731</v>
+        <v>0.02799572158763379</v>
       </c>
       <c r="S6">
-        <v>0</v>
+        <v>0.01321409153093948</v>
       </c>
       <c r="T6">
-        <v>0.1599966205821402</v>
+        <v>0.1249616928364484</v>
       </c>
       <c r="U6">
-        <v>0</v>
+        <v>0.004662414115311072</v>
       </c>
       <c r="V6">
-        <v>0.01801966637521168</v>
+        <v>0.0622026466603937</v>
       </c>
       <c r="W6">
-        <v>0</v>
+        <v>0.04540347760893012</v>
       </c>
       <c r="X6">
-        <v>0</v>
+        <v>0.03396307919645958</v>
       </c>
       <c r="Y6">
-        <v>0.004177594177326839</v>
+        <v>0.0783204101367668</v>
       </c>
       <c r="Z6">
-        <v>0.01419644931112323</v>
+        <v>0</v>
       </c>
       <c r="AA6">
-        <v>0.04956669128410442</v>
+        <v>0.131956295513783</v>
       </c>
       <c r="AB6">
         <v>0</v>
       </c>
       <c r="AC6">
-        <v>0</v>
+        <v>0.01083534932118565</v>
       </c>
       <c r="AD6">
         <v>0</v>
       </c>
       <c r="AE6">
-        <v>0.002059178573404361</v>
+        <v>0</v>
       </c>
       <c r="AF6">
         <v>0</v>
@@ -1225,7 +1225,7 @@
         <v>0</v>
       </c>
       <c r="AI6">
-        <v>0.003003437951772948</v>
+        <v>0</v>
       </c>
       <c r="AJ6">
         <v>0</v>
@@ -1371,97 +1371,97 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>0.09197485937058973</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.09197485937058973</v>
       </c>
       <c r="F2">
-        <v>0.0121840640905508</v>
+        <v>0.230971494055503</v>
       </c>
       <c r="G2">
-        <v>0.1014134596669599</v>
+        <v>0.230971494055503</v>
       </c>
       <c r="H2">
-        <v>0.3846391565927335</v>
+        <v>0.230971494055503</v>
       </c>
       <c r="I2">
-        <v>0.4415867165840818</v>
+        <v>0.230971494055503</v>
       </c>
       <c r="J2">
-        <v>0.4415867165840818</v>
+        <v>0.230971494055503</v>
       </c>
       <c r="K2">
-        <v>0.4415867165840818</v>
+        <v>0.2726112202586267</v>
       </c>
       <c r="L2">
-        <v>0.4415867165840818</v>
+        <v>0.2766044505603588</v>
       </c>
       <c r="M2">
-        <v>0.4415867165840818</v>
+        <v>0.3565774361304601</v>
       </c>
       <c r="N2">
-        <v>0.5025901248055318</v>
+        <v>0.4114320428716405</v>
       </c>
       <c r="O2">
-        <v>0.512295016991592</v>
+        <v>0.4114320428716405</v>
       </c>
       <c r="P2">
-        <v>0.6415520836267352</v>
+        <v>0.4456559594349635</v>
       </c>
       <c r="Q2">
-        <v>0.6415520836267352</v>
+        <v>0.4456559594349635</v>
       </c>
       <c r="R2">
-        <v>0.6958278081520423</v>
+        <v>0.6527482396969454</v>
       </c>
       <c r="S2">
-        <v>0.6958278081520423</v>
+        <v>0.6527482396969454</v>
       </c>
       <c r="T2">
-        <v>0.8619927109547392</v>
+        <v>0.7156469126236569</v>
       </c>
       <c r="U2">
-        <v>0.8641010446939611</v>
+        <v>0.7156469126236569</v>
       </c>
       <c r="V2">
-        <v>0.8847604588551861</v>
+        <v>0.7877839258913956</v>
       </c>
       <c r="W2">
-        <v>0.8847604588551861</v>
+        <v>0.8073548760006565</v>
       </c>
       <c r="X2">
-        <v>0.8858688924671665</v>
+        <v>0.8107375618797361</v>
       </c>
       <c r="Y2">
-        <v>0.8940535312645942</v>
+        <v>0.9751448308619693</v>
       </c>
       <c r="Z2">
-        <v>0.8940535312645942</v>
+        <v>0.9816395541661951</v>
       </c>
       <c r="AA2">
-        <v>0.9953368835667227</v>
+        <v>0.9979190708841177</v>
       </c>
       <c r="AB2">
-        <v>0.9953368835667227</v>
+        <v>1</v>
       </c>
       <c r="AC2">
-        <v>0.9953368835667227</v>
+        <v>1</v>
       </c>
       <c r="AD2">
-        <v>0.9953368835667227</v>
+        <v>1</v>
       </c>
       <c r="AE2">
-        <v>0.9953368835667227</v>
+        <v>1</v>
       </c>
       <c r="AF2">
-        <v>0.9953368835667227</v>
+        <v>1</v>
       </c>
       <c r="AG2">
-        <v>0.9953368835667227</v>
+        <v>1</v>
       </c>
       <c r="AH2">
-        <v>0.9953368835667227</v>
+        <v>1</v>
       </c>
       <c r="AI2">
         <v>1</v>
@@ -1484,85 +1484,85 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.1055350176767106</v>
+        <v>0.1283957996129114</v>
       </c>
       <c r="E3">
-        <v>0.1055350176767106</v>
+        <v>0.1283957996129114</v>
       </c>
       <c r="F3">
-        <v>0.4159328639413242</v>
+        <v>0.2411021897438779</v>
       </c>
       <c r="G3">
-        <v>0.4159328639413242</v>
+        <v>0.2411021897438779</v>
       </c>
       <c r="H3">
-        <v>0.4159328639413242</v>
+        <v>0.2411021897438779</v>
       </c>
       <c r="I3">
-        <v>0.4159328639413242</v>
+        <v>0.2411021897438779</v>
       </c>
       <c r="J3">
-        <v>0.4186903909899745</v>
+        <v>0.2411021897438779</v>
       </c>
       <c r="K3">
-        <v>0.4322637087409914</v>
+        <v>0.3050187235390239</v>
       </c>
       <c r="L3">
-        <v>0.4721788079882823</v>
+        <v>0.3050187235390239</v>
       </c>
       <c r="M3">
-        <v>0.5471909437831093</v>
+        <v>0.4110959876476371</v>
       </c>
       <c r="N3">
-        <v>0.6105746595706283</v>
+        <v>0.4550330943967712</v>
       </c>
       <c r="O3">
-        <v>0.6105746595706283</v>
+        <v>0.4550330943967712</v>
       </c>
       <c r="P3">
-        <v>0.6835265159204257</v>
+        <v>0.4864610966941054</v>
       </c>
       <c r="Q3">
-        <v>0.6835265159204257</v>
+        <v>0.4864610966941054</v>
       </c>
       <c r="R3">
-        <v>0.8499222687495336</v>
+        <v>0.6813212235743981</v>
       </c>
       <c r="S3">
-        <v>0.8499222687495336</v>
+        <v>0.6813212235743981</v>
       </c>
       <c r="T3">
-        <v>0.86315421154792</v>
+        <v>0.735568634162903</v>
       </c>
       <c r="U3">
-        <v>0.86315421154792</v>
+        <v>0.735568634162903</v>
       </c>
       <c r="V3">
-        <v>0.8636079241748769</v>
+        <v>0.7957378359840499</v>
       </c>
       <c r="W3">
-        <v>0.8852738216719008</v>
+        <v>0.8177278759317568</v>
       </c>
       <c r="X3">
-        <v>0.8852738216719008</v>
+        <v>0.8177278759317568</v>
       </c>
       <c r="Y3">
-        <v>1</v>
+        <v>0.983234410650726</v>
       </c>
       <c r="Z3">
-        <v>1</v>
+        <v>0.9890779418565925</v>
       </c>
       <c r="AA3">
-        <v>1</v>
+        <v>0.9975501936913138</v>
       </c>
       <c r="AB3">
-        <v>1</v>
+        <v>0.9994105255919778</v>
       </c>
       <c r="AC3">
-        <v>1</v>
+        <v>0.9994105255919778</v>
       </c>
       <c r="AD3">
-        <v>1</v>
+        <v>0.9994105255919778</v>
       </c>
       <c r="AE3">
         <v>1</v>
@@ -1597,94 +1597,94 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>0.07516673184542731</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.07516673184542731</v>
       </c>
       <c r="F4">
-        <v>0.2001272947229348</v>
+        <v>0.2590513837215651</v>
       </c>
       <c r="G4">
-        <v>0.314677579140782</v>
+        <v>0.2590513837215651</v>
       </c>
       <c r="H4">
-        <v>0.4708563207280904</v>
+        <v>0.2590513837215651</v>
       </c>
       <c r="I4">
-        <v>0.4708563207280904</v>
+        <v>0.2590513837215651</v>
       </c>
       <c r="J4">
-        <v>0.4708563207280904</v>
+        <v>0.2590513837215651</v>
       </c>
       <c r="K4">
-        <v>0.4708563207280904</v>
+        <v>0.2702314631293614</v>
       </c>
       <c r="L4">
-        <v>0.4708563207280904</v>
+        <v>0.2764497451945633</v>
       </c>
       <c r="M4">
-        <v>0.5230966442577022</v>
+        <v>0.3170722090523022</v>
       </c>
       <c r="N4">
-        <v>0.5230966442577022</v>
+        <v>0.4230483459955969</v>
       </c>
       <c r="O4">
-        <v>0.6829308457616661</v>
+        <v>0.4230483459955969</v>
       </c>
       <c r="P4">
-        <v>0.6829308457616661</v>
+        <v>0.446331521707212</v>
       </c>
       <c r="Q4">
-        <v>0.6829308457616661</v>
+        <v>0.446331521707212</v>
       </c>
       <c r="R4">
-        <v>0.7271687953173178</v>
+        <v>0.6564207877352858</v>
       </c>
       <c r="S4">
-        <v>0.8120936615196443</v>
+        <v>0.6564207877352858</v>
       </c>
       <c r="T4">
-        <v>0.8724785150379983</v>
+        <v>0.7274789074034259</v>
       </c>
       <c r="U4">
-        <v>0.8870535819524501</v>
+        <v>0.7274789074034259</v>
       </c>
       <c r="V4">
-        <v>0.8870535819524501</v>
+        <v>0.8044068793499565</v>
       </c>
       <c r="W4">
-        <v>0.8964616968361542</v>
+        <v>0.8148076642279224</v>
       </c>
       <c r="X4">
-        <v>0.8964616968361542</v>
+        <v>0.8232808141829171</v>
       </c>
       <c r="Y4">
-        <v>0.8995011345337645</v>
+        <v>0.9645616007520853</v>
       </c>
       <c r="Z4">
-        <v>0.9610502337719992</v>
+        <v>0.9845500216977823</v>
       </c>
       <c r="AA4">
-        <v>0.9991199551616264</v>
+        <v>1</v>
       </c>
       <c r="AB4">
-        <v>0.9991199551616264</v>
+        <v>1</v>
       </c>
       <c r="AC4">
-        <v>0.9991199551616264</v>
+        <v>1</v>
       </c>
       <c r="AD4">
-        <v>0.9991199551616264</v>
+        <v>1</v>
       </c>
       <c r="AE4">
-        <v>0.9991199551616264</v>
+        <v>1</v>
       </c>
       <c r="AF4">
-        <v>0.9991199551616264</v>
+        <v>1</v>
       </c>
       <c r="AG4">
-        <v>0.9991199551616264</v>
+        <v>1</v>
       </c>
       <c r="AH4">
         <v>1</v>
@@ -1710,106 +1710,106 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>0.0777590573538135</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.0777590573538135</v>
       </c>
       <c r="F5">
-        <v>0.2210727623811943</v>
+        <v>0.2270242963630931</v>
       </c>
       <c r="G5">
-        <v>0.3233415473720966</v>
+        <v>0.2270242963630931</v>
       </c>
       <c r="H5">
-        <v>0.5025703163495923</v>
+        <v>0.2270242963630931</v>
       </c>
       <c r="I5">
-        <v>0.5025703163495923</v>
+        <v>0.2270242963630931</v>
       </c>
       <c r="J5">
-        <v>0.5065692318116756</v>
+        <v>0.2270242963630931</v>
       </c>
       <c r="K5">
-        <v>0.5065692318116756</v>
+        <v>0.2529708585110941</v>
       </c>
       <c r="L5">
-        <v>0.5065692318116756</v>
+        <v>0.2663430291552652</v>
       </c>
       <c r="M5">
-        <v>0.5423842269238196</v>
+        <v>0.3434375997286762</v>
       </c>
       <c r="N5">
-        <v>0.5423842269238196</v>
+        <v>0.4079069096667681</v>
       </c>
       <c r="O5">
-        <v>0.6996652152878993</v>
+        <v>0.4079069096667681</v>
       </c>
       <c r="P5">
-        <v>0.6996652152878993</v>
+        <v>0.4252906992665004</v>
       </c>
       <c r="Q5">
-        <v>0.6996652152878993</v>
+        <v>0.4252906992665004</v>
       </c>
       <c r="R5">
-        <v>0.7433832075402371</v>
+        <v>0.6316347743051838</v>
       </c>
       <c r="S5">
-        <v>0.823267408269257</v>
+        <v>0.6316347743051838</v>
       </c>
       <c r="T5">
-        <v>0.8918614512819246</v>
+        <v>0.7174947792235524</v>
       </c>
       <c r="U5">
-        <v>0.9015313476309226</v>
+        <v>0.7286894484262658</v>
       </c>
       <c r="V5">
-        <v>0.9015313476309226</v>
+        <v>0.8032266091322698</v>
       </c>
       <c r="W5">
-        <v>0.9089358917780126</v>
+        <v>0.8357126151413004</v>
       </c>
       <c r="X5">
-        <v>0.9089358917780126</v>
+        <v>0.8357126151413004</v>
       </c>
       <c r="Y5">
-        <v>0.9089358917780126</v>
+        <v>0.9792508809179993</v>
       </c>
       <c r="Z5">
-        <v>0.9691099794986203</v>
+        <v>0.9792508809179993</v>
       </c>
       <c r="AA5">
-        <v>0.9959451139051079</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AB5">
-        <v>0.9959451139051079</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AC5">
-        <v>0.9959451139051079</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AD5">
-        <v>0.9959451139051079</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AE5">
-        <v>0.9959451139051079</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AF5">
-        <v>0.9959451139051079</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AG5">
-        <v>0.9959451139051079</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AH5">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AI5">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AJ5">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AK5">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:37">
@@ -1829,100 +1829,100 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.08321948940234518</v>
+        <v>0.1358400428342964</v>
       </c>
       <c r="G6">
-        <v>0.09693665288764872</v>
+        <v>0.1668605650423601</v>
       </c>
       <c r="H6">
-        <v>0.4711756972765622</v>
+        <v>0.2641493154687297</v>
       </c>
       <c r="I6">
-        <v>0.4746201347018229</v>
+        <v>0.2641493154687297</v>
       </c>
       <c r="J6">
-        <v>0.508799353398987</v>
+        <v>0.2641493154687297</v>
       </c>
       <c r="K6">
-        <v>0.508799353398987</v>
+        <v>0.2641493154687297</v>
       </c>
       <c r="L6">
-        <v>0.508799353398987</v>
+        <v>0.2641493154687297</v>
       </c>
       <c r="M6">
-        <v>0.5222878762761245</v>
+        <v>0.3153135291782432</v>
       </c>
       <c r="N6">
-        <v>0.5398434627647563</v>
+        <v>0.3153135291782432</v>
       </c>
       <c r="O6">
-        <v>0.6283660409247371</v>
+        <v>0.4413996635003308</v>
       </c>
       <c r="P6">
-        <v>0.6766575644932589</v>
+        <v>0.4664848214921485</v>
       </c>
       <c r="Q6">
-        <v>0.6766575644932589</v>
+        <v>0.4664848214921485</v>
       </c>
       <c r="R6">
-        <v>0.7489803617449162</v>
+        <v>0.4944805430797823</v>
       </c>
       <c r="S6">
-        <v>0.7489803617449162</v>
+        <v>0.5076946346107218</v>
       </c>
       <c r="T6">
-        <v>0.9089769823270565</v>
+        <v>0.6326563274471703</v>
       </c>
       <c r="U6">
-        <v>0.9089769823270565</v>
+        <v>0.6373187415624814</v>
       </c>
       <c r="V6">
-        <v>0.9269966487022682</v>
+        <v>0.699521388222875</v>
       </c>
       <c r="W6">
-        <v>0.9269966487022682</v>
+        <v>0.7449248658318052</v>
       </c>
       <c r="X6">
-        <v>0.9269966487022682</v>
+        <v>0.7788879450282647</v>
       </c>
       <c r="Y6">
-        <v>0.931174242879595</v>
+        <v>0.8572083551650316</v>
       </c>
       <c r="Z6">
-        <v>0.9453706921907182</v>
+        <v>0.8572083551650316</v>
       </c>
       <c r="AA6">
-        <v>0.9949373834748226</v>
+        <v>0.9891646506788145</v>
       </c>
       <c r="AB6">
-        <v>0.9949373834748226</v>
+        <v>0.9891646506788145</v>
       </c>
       <c r="AC6">
-        <v>0.9949373834748226</v>
+        <v>1</v>
       </c>
       <c r="AD6">
-        <v>0.9949373834748226</v>
+        <v>1</v>
       </c>
       <c r="AE6">
-        <v>0.996996562048227</v>
+        <v>1</v>
       </c>
       <c r="AF6">
-        <v>0.996996562048227</v>
+        <v>1</v>
       </c>
       <c r="AG6">
-        <v>0.996996562048227</v>
+        <v>1</v>
       </c>
       <c r="AH6">
-        <v>0.996996562048227</v>
+        <v>1</v>
       </c>
       <c r="AI6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AJ6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AK6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1987,19 +1987,19 @@
         <v>0.5</v>
       </c>
       <c r="C2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.5025901248055318</v>
+        <v>0.6527482396969454</v>
       </c>
       <c r="G2">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="H2">
         <v>59</v>
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.5471909437831093</v>
+        <v>0.6813212235743981</v>
       </c>
       <c r="G3">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H3">
         <v>59</v>
@@ -2069,19 +2069,19 @@
         <v>0.5</v>
       </c>
       <c r="C4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D4">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.5230966442577022</v>
+        <v>0.6564207877352858</v>
       </c>
       <c r="G4">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="H4">
         <v>59</v>
@@ -2110,19 +2110,19 @@
         <v>0.5</v>
       </c>
       <c r="C5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D5">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.5025703163495923</v>
+        <v>0.6316347743051838</v>
       </c>
       <c r="G5">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="H5">
         <v>59</v>
@@ -2154,16 +2154,16 @@
         <v>3</v>
       </c>
       <c r="D6">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.508799353398987</v>
+        <v>0.5076946346107218</v>
       </c>
       <c r="G6">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="H6">
         <v>59</v>
@@ -2246,7 +2246,7 @@
         <v>0.7</v>
       </c>
       <c r="C2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D2">
         <v>19</v>
@@ -2255,10 +2255,10 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.8619927109547392</v>
+        <v>0.7156469126236569</v>
       </c>
       <c r="G2">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="H2">
         <v>59</v>
@@ -2290,16 +2290,16 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.8499222687495336</v>
+        <v>0.735568634162903</v>
       </c>
       <c r="G3">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H3">
         <v>59</v>
@@ -2328,19 +2328,19 @@
         <v>0.7</v>
       </c>
       <c r="C4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D4">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.7271687953173178</v>
+        <v>0.7274789074034259</v>
       </c>
       <c r="G4">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="H4">
         <v>59</v>
@@ -2369,19 +2369,19 @@
         <v>0.7</v>
       </c>
       <c r="C5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D5">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.7433832075402371</v>
+        <v>0.7174947792235524</v>
       </c>
       <c r="G5">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="H5">
         <v>59</v>
@@ -2413,16 +2413,16 @@
         <v>3</v>
       </c>
       <c r="D6">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.7489803617449162</v>
+        <v>0.7449248658318052</v>
       </c>
       <c r="G6">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="H6">
         <v>59</v>
@@ -2505,19 +2505,19 @@
         <v>0.8</v>
       </c>
       <c r="C2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.8619927109547392</v>
+        <v>0.8073548760006565</v>
       </c>
       <c r="G2">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="H2">
         <v>59</v>
@@ -2549,16 +2549,16 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.8499222687495336</v>
+        <v>0.8177278759317568</v>
       </c>
       <c r="G3">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="H3">
         <v>59</v>
@@ -2587,19 +2587,19 @@
         <v>0.8</v>
       </c>
       <c r="C4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D4">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.8120936615196443</v>
+        <v>0.8044068793499565</v>
       </c>
       <c r="G4">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H4">
         <v>59</v>
@@ -2628,19 +2628,19 @@
         <v>0.8</v>
       </c>
       <c r="C5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D5">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.823267408269257</v>
+        <v>0.8032266091322698</v>
       </c>
       <c r="G5">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H5">
         <v>59</v>
@@ -2672,16 +2672,16 @@
         <v>3</v>
       </c>
       <c r="D6">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.9089769823270565</v>
+        <v>0.8572083551650316</v>
       </c>
       <c r="G6">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="H6">
         <v>59</v>
@@ -2764,19 +2764,19 @@
         <v>0.9</v>
       </c>
       <c r="C2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.9953368835667227</v>
+        <v>0.9751448308619693</v>
       </c>
       <c r="G2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H2">
         <v>59</v>
@@ -2814,7 +2814,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.983234410650726</v>
       </c>
       <c r="G3">
         <v>23</v>
@@ -2846,19 +2846,19 @@
         <v>0.9</v>
       </c>
       <c r="C4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D4">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.9610502337719992</v>
+        <v>0.9645616007520853</v>
       </c>
       <c r="G4">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H4">
         <v>59</v>
@@ -2887,19 +2887,19 @@
         <v>0.9</v>
       </c>
       <c r="C5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D5">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.9015313476309226</v>
+        <v>0.9792508809179993</v>
       </c>
       <c r="G5">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="H5">
         <v>59</v>
@@ -2931,16 +2931,16 @@
         <v>3</v>
       </c>
       <c r="D6">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.9089769823270565</v>
+        <v>0.9891646506788145</v>
       </c>
       <c r="G6">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="H6">
         <v>59</v>
